--- a/src/BTL/assets/ErrorMachineID.xlsx
+++ b/src/BTL/assets/ErrorMachineID.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HUST\20231\PhanMem\2023.1-143801-07\src\BTL\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87683F3B-83F9-4610-B7B4-D2AE4A8EB141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBBF66F-D2B9-484F-92C1-18278255A8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8880" xr2:uid="{374A70D2-011A-4F75-A82B-7FC450989222}"/>
   </bookViews>
@@ -71,16 +71,16 @@
     <t>M2</t>
   </si>
   <si>
-    <t>M001</t>
-  </si>
-  <si>
-    <t>M002</t>
-  </si>
-  <si>
     <t>17:01:22</t>
   </si>
   <si>
     <t>CHECKOUT</t>
+  </si>
+  <si>
+    <t>M0000001</t>
+  </si>
+  <si>
+    <t>M0000002</t>
   </si>
 </sst>
 </file>
@@ -116,10 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -437,7 +436,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +467,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -479,13 +478,13 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -502,16 +501,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
